--- a/PortfolioProject.xlsx
+++ b/PortfolioProject.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EEE6E7-4AFA-4B1A-9971-FCDAB2DBCC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF9255E-CC9A-46BA-96A6-6054DA7060A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivots" sheetId="6" r:id="rId1"/>
@@ -26,21 +26,23 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
-    <pivotCache cacheId="65" r:id="rId6"/>
-    <pivotCache cacheId="68" r:id="rId7"/>
-    <pivotCache cacheId="71" r:id="rId8"/>
-    <pivotCache cacheId="78" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="23" r:id="rId6"/>
+    <pivotCache cacheId="303" r:id="rId7"/>
+    <pivotCache cacheId="306" r:id="rId8"/>
+    <pivotCache cacheId="309" r:id="rId9"/>
+    <pivotCache cacheId="312" r:id="rId10"/>
+    <pivotCache cacheId="315" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="5" r:id="rId10"/>
+        <pivotCache cacheId="5" r:id="rId12"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId11"/>
+        <x14:slicerCache r:id="rId13"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -116,7 +118,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -138,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="1079">
   <si>
     <t>Customer ID</t>
   </si>
@@ -3348,16 +3350,44 @@
   </si>
   <si>
     <t>Wednesday</t>
+  </si>
+  <si>
+    <t>For Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Rep</t>
+  </si>
+  <si>
+    <t>Calls</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Sel.Calls</t>
+  </si>
+  <si>
+    <t>Sel.Amount</t>
+  </si>
+  <si>
+    <t>Selected rep</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="\$#,##0;\-\$#,##0;\$#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="\$#,###.0,&quot;k&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -3395,7 +3425,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3414,8 +3444,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3534,122 +3570,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3685,24 +3610,60 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3867,14 +3828,259 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style 1" pivot="0" table="0" count="1" xr9:uid="{25BABDA2-DB3D-41F6-98D0-3EE7CBB0176F}">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+    </tableStyle>
+    <tableStyle name="SlicerStyleDark5 2" pivot="0" table="0" count="10" xr9:uid="{AD47E305-3DEF-4232-A944-71C987D02AB4}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
+      <x14:dxfs count="8">
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor auto="1"/>
+              <bgColor theme="8" tint="0.59996337778862885"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <gradientFill degree="90">
+              <stop position="0">
+                <color rgb="FFF8E162"/>
+              </stop>
+              <stop position="1">
+                <color rgb="FFFCF7E0"/>
+              </stop>
+            </gradientFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor auto="1"/>
+              <bgColor theme="8" tint="0.59996337778862885"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor auto="1"/>
+              <bgColor theme="8" tint="0.59996337778862885"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FF999999"/>
+            </left>
+            <right style="thin">
+              <color rgb="FF999999"/>
+            </right>
+            <top style="thin">
+              <color rgb="FF999999"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FF999999"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color theme="8" tint="-0.249977111117893"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="8" tint="0.59999389629810485"/>
+              <bgColor theme="8" tint="0.59999389629810485"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color theme="8" tint="0.59999389629810485"/>
+            </left>
+            <right style="thin">
+              <color theme="8" tint="0.59999389629810485"/>
+            </right>
+            <top style="thin">
+              <color theme="8" tint="0.59999389629810485"/>
+            </top>
+            <bottom style="thin">
+              <color theme="8" tint="0.59999389629810485"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor theme="8"/>
+              <bgColor theme="9" tint="-0.24994659260841701"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color theme="8"/>
+            </left>
+            <right style="thin">
+              <color theme="8"/>
+            </right>
+            <top style="thin">
+              <color theme="8"/>
+            </top>
+            <bottom style="thin">
+              <color theme="8"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FF959595"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor rgb="FFDFDFDF"/>
+              <bgColor rgb="FFDFDFDF"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color rgb="FFDFDFDF"/>
+            </left>
+            <right style="thin">
+              <color rgb="FFDFDFDF"/>
+            </right>
+            <top style="thin">
+              <color rgb="FFDFDFDF"/>
+            </top>
+            <bottom style="thin">
+              <color rgb="FFDFDFDF"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <color rgb="FF000000"/>
+          </font>
+          <fill>
+            <patternFill patternType="none">
+              <fgColor indexed="64"/>
+              <bgColor auto="1"/>
+            </patternFill>
+          </fill>
+          <border diagonalUp="0" diagonalDown="0">
+            <left style="thin">
+              <color auto="1"/>
+            </left>
+            <right style="thin">
+              <color auto="1"/>
+            </right>
+            <top style="thin">
+              <color auto="1"/>
+            </top>
+            <bottom style="thin">
+              <color auto="1"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+      </x14:dxfs>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1">
+        <x14:slicerStyle name="SlicerStyleDark5 2">
+          <x14:slicerStyleElements>
+            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="7"/>
+            <x14:slicerStyleElement type="unselectedItemWithNoData" dxfId="6"/>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="5"/>
+            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="4"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="3"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="2"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithNoData" dxfId="1"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithNoData" dxfId="0"/>
+          </x14:slicerStyleElements>
+        </x14:slicerStyle>
+      </x14:slicerStyles>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
@@ -4226,25 +4432,25 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>146</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>133</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>138</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>153</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>141</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>161</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5004,40 +5210,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>79</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>155</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5154,40 +5360,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>79</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>155</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5413,6 +5619,1538 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Calls</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4779218774123805E-2"/>
+          <c:y val="3.9281705948372617E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14967770572796046"/>
+          <c:y val="0.1718504906867874"/>
+          <c:w val="0.80130268642890223"/>
+          <c:h val="0.76734682685728905"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivots!$E$46:$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>R01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$F$46:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-602A-41AE-B5B8-300D07A9F5CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivots!$H$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sel.Calls</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="0" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="20000"/>
+                      <a:lumOff val="80000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-602A-41AE-B5B8-300D07A9F5CC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$H$46:$H$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-602A-41AE-B5B8-300D07A9F5CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="31"/>
+        <c:overlap val="100"/>
+        <c:axId val="868669488"/>
+        <c:axId val="868683408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="868669488"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="868683408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="868683408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="868669488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Amount</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11033161424090915"/>
+          <c:y val="2.7915327317104052E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10373974777895884"/>
+          <c:y val="0.15804383453728257"/>
+          <c:w val="0.81681771058882191"/>
+          <c:h val="0.78512891166271592"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivots!$E$46:$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>R01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$G$46:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>\$#,###.0,"k"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20581</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63D7-4F64-ADC8-53B0423E70E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivots!$I$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sel.Amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="44000">
+                  <a:schemeClr val="accent5"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="0" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$I$46:$I$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20581</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-63D7-4F64-ADC8-53B0423E70E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:overlap val="100"/>
+        <c:axId val="868669488"/>
+        <c:axId val="868683408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="868669488"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="868683408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="868683408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="\$#,###.0,&quot;k&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="868669488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[PortfolioProject.xlsx]Pivots!PivotTable2</c:name>
+    <c:fmtId val="30"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Female VS Male Callers</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15952221350638238"/>
+          <c:y val="5.4718475121046078E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                      <a:alpha val="97000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10273042999432491"/>
+          <c:y val="0.17599338208048929"/>
+          <c:w val="0.83271602005846712"/>
+          <c:h val="0.62414774658500227"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivots!$B$58:$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                        <a:alpha val="97000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivots!$A$60:$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cincinnati</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Columbus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$B$60:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C4F0-4C2C-BE6F-67B042E9E80B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivots!$C$58:$C$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="50000"/>
+                        <a:alpha val="66000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivots!$A$60:$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cincinnati</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cleveland</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Columbus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$C$60:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C4F0-4C2C-BE6F-67B042E9E80B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="34"/>
+        <c:overlap val="100"/>
+        <c:axId val="1586032592"/>
+        <c:axId val="1586036912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1586032592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586036912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1586036912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1586032592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25963251690901379"/>
+          <c:y val="0.89162307011198982"/>
+          <c:w val="0.53440002948710874"/>
+          <c:h val="0.10765127328960165"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+          <a:alpha val="92000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5454,6 +7192,126 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6501,6 +8359,1510 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6773,7 +10135,7 @@
               <a:latin typeface="Aptos Display"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1,000</a:t>
+            <a:t>218</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100">
             <a:solidFill>
@@ -7060,7 +10422,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>$96,623</a:t>
+            <a:t>$20,581</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -7350,7 +10712,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>89,850</a:t>
+            <a:t>19,300</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -7925,7 +11287,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>307</a:t>
+            <a:t>74</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -7942,19 +11304,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="26" name="Representative">
@@ -7977,7 +11339,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7987,8 +11349,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11216640" y="1828800"/>
-              <a:ext cx="1828800" cy="2581275"/>
+              <a:off x="6799359" y="3283558"/>
+              <a:ext cx="1363980" cy="2249226"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8089,6 +11451,190 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B545D49B-F68F-8E52-F5C5-28EC73ACEAAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2270760" y="3162300"/>
+          <a:ext cx="4610100" cy="2446020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C35A60F8-BE68-436D-905D-2745032F43C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>479985</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E491A052-38E0-4EF5-8D0A-3604D3997BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>321696</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>144118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>450573</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="Chart 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E582C347-8A0C-4B95-9616-AF54D79826B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8734,7 +12280,169 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.637443865744" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8858DEE7-94FF-480C-8C61-4947E2F4397B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45989.366872685183" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3EF547F6-AD8B-4769-BEE4-84FA22BC5B3F}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="5">
+        <s v="R01"/>
+        <s v="R02"/>
+        <s v="R03"/>
+        <s v="R04"/>
+        <s v="R05"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
+    <cacheField name="[Measures].[Total Amount]" caption="Total Amount" numFmtId="0" hierarchy="18" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="25">
+    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="calls" uniqueName="[calls]" caption="calls"/>
+    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="calls" caption="calls"/>
+    <measureGroup name="customers" caption="customers"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45989.415047916664" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{508831DC-FA11-460C-9924-10487363524F}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[customers].[City].[City]" caption="City" numFmtId="0" hierarchy="15" level="1">
+      <sharedItems count="3">
+        <s v="Cincinnati"/>
+        <s v="Cleveland"/>
+        <s v="Columbus"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[customers].[Gedner].[Gedner]" caption="Gedner" numFmtId="0" hierarchy="13" level="1">
+      <sharedItems count="2">
+        <s v="Female"/>
+        <s v="Male"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="25">
+    <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[FY]" caption="FY" attribute="1" defaultMemberUniqueName="[calls].[FY].[All]" allUniqueName="[calls].[FY].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Day of week]" caption="Day of week" attribute="1" defaultMemberUniqueName="[calls].[Day of week].[All]" allUniqueName="[calls].[Day of week].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Duration Bucket]" caption="Duration Bucket" attribute="1" defaultMemberUniqueName="[calls].[Duration Bucket].[All]" allUniqueName="[calls].[Duration Bucket].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Rating rounded]" caption="Rating rounded" attribute="1" defaultMemberUniqueName="[calls].[Rating rounded].[All]" allUniqueName="[calls].[Rating rounded].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month)]" caption="Date of Call (Month)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month)].[All]" allUniqueName="[calls].[Date of Call (Month)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[customers].[Customer ID].[All]" allUniqueName="[customers].[Customer ID].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[Gedner]" caption="Gedner" attribute="1" defaultMemberUniqueName="[customers].[Gedner].[All]" allUniqueName="[customers].[Gedner].[All]" dimensionUniqueName="[customers]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[customers].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[customers].[Age].[All]" allUniqueName="[customers].[Age].[All]" dimensionUniqueName="[customers]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[customers].[City].[All]" allUniqueName="[customers].[City].[All]" dimensionUniqueName="[customers]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[calls].[Date of Call (Month Index)]" caption="Date of Call (Month Index)" attribute="1" defaultMemberUniqueName="[calls].[Date of Call (Month Index)].[All]" allUniqueName="[calls].[Date of Call (Month Index)].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Call Count]" caption="Call Count" measure="1" displayFolder="" measureGroup="calls" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Amount]" caption="Total Amount" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Duration]" caption="Total Duration" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Avg.Rating]" caption="Avg.Rating" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[5 * Rating Calls]" caption="5 * Rating Calls" measure="1" displayFolder="" measureGroup="calls" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count calls]" caption="__XL_Count calls" measure="1" displayFolder="" measureGroup="calls" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count customers]" caption="__XL_Count customers" measure="1" displayFolder="" measureGroup="customers" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension name="calls" uniqueName="[calls]" caption="calls"/>
+    <dimension name="customers" uniqueName="[customers]" caption="customers"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="calls" caption="calls"/>
+    <measureGroup name="customers" caption="customers"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45989.419972685188" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8858DEE7-94FF-480C-8C61-4947E2F4397B}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="6">
     <cacheField name="[Measures].[Call Count]" caption="Call Count" numFmtId="0" hierarchy="17" level="32767"/>
@@ -8821,8 +12529,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.637444444445" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E23C2199-6754-4875-997D-89C3EC5D8644}">
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45989.419973379627" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E23C2199-6754-4875-997D-89C3EC5D8644}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="5">
     <cacheField name="[calls].[Date of Call].[Date of Call]" caption="Date of Call" numFmtId="0" hierarchy="4" level="1">
@@ -9263,8 +12971,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.637444907406" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0C4F5B91-130A-45D3-84A5-F73746D5FF7D}">
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45989.419973842596" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0C4F5B91-130A-45D3-84A5-F73746D5FF7D}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
@@ -9347,15 +13055,26 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.639536921299" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3EF547F6-AD8B-4769-BEE4-84FA22BC5B3F}">
+<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45989.419974189812" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{082C928C-4A34-45A3-8322-8999780F7E1F}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="0"/>
+  <cacheFields count="1">
+    <cacheField name="[calls].[Representative].[Representative]" caption="Representative" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="1">
+        <s v="R02"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
   <cacheHierarchies count="25">
     <cacheHierarchy uniqueName="[calls].[Call number]" caption="Call number" attribute="1" defaultMemberUniqueName="[calls].[Call number].[All]" allUniqueName="[calls].[Call number].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[calls].[Customer ID].[All]" allUniqueName="[calls].[Customer ID].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Duration]" caption="Duration" attribute="1" defaultMemberUniqueName="[calls].[Duration].[All]" allUniqueName="[calls].[Duration].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[calls].[Representative]" caption="Representative" attribute="1" defaultMemberUniqueName="[calls].[Representative].[All]" allUniqueName="[calls].[Representative].[All]" dimensionUniqueName="[calls]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[calls].[Date of Call]" caption="Date of Call" attribute="1" time="1" defaultMemberUniqueName="[calls].[Date of Call].[All]" allUniqueName="[calls].[Date of Call].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Purchase Amount]" caption="Purchase Amount" attribute="1" defaultMemberUniqueName="[calls].[Purchase Amount].[All]" allUniqueName="[calls].[Purchase Amount].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[calls].[Satisfaction Rating]" caption="Satisfaction Rating" attribute="1" defaultMemberUniqueName="[calls].[Satisfaction Rating].[All]" allUniqueName="[calls].[Satisfaction Rating].[All]" dimensionUniqueName="[calls]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
@@ -9401,7 +13120,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Sultan" refreshedDate="45988.428667824075" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1C37E43D-3C1B-4740-AE60-F5A9AF784D80}">
   <cacheSource type="external" connectionId="1">
     <extLst>
@@ -9448,8 +13167,84 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06AD5479-9280-469F-AA3D-CDBD749637C2}" name="reps pivot" cacheId="78" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A44:C61" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC07D0C4-1C20-4975-A7EE-394D315C4D33}" name="PivotTable2" cacheId="303" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
+  <location ref="A58:D63" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="30" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="30" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotHierarchies count="25">
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -9478,12 +13273,19 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="15"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="13"/>
+  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
         <x15:activeTabTopLevelEntity name="[calls]"/>
       </x15:pivotTableUISettings>
     </ext>
@@ -9495,7 +13297,81 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="Monthly Trend" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFED1980-F3DA-4181-984C-133E7C44C6C1}" name="seleted rep" cacheId="315" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A55:A56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="1">
+        <item s="1" x="0"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x/>
+    </i>
+  </rowItems>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotHierarchies count="25">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="Monthly Trend" cacheId="309" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A15:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -9978,7 +13854,11 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R02]"/>
+      </members>
+    </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -10032,8 +13912,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="65" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="306" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A10:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -10077,7 +13957,11 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R02]"/>
+      </members>
+    </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -10120,8 +14004,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="Summary" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="Summary" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -10207,8 +14091,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="WeekDay trend" cacheId="71" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="WeekDay trend" cacheId="312" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="A31:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
@@ -10314,7 +14198,11 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R02]"/>
+      </members>
+    </pivotHierarchy>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -10357,6 +14245,110 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06AD5479-9280-469F-AA3D-CDBD749637C2}" name="reps pivot" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A44:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="25">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
@@ -10373,6 +14365,7 @@
     <pivotTable tabId="6" name="rep pivot"/>
     <pivotTable tabId="6" name="Monthly Trend"/>
     <pivotTable tabId="6" name="WeekDay trend"/>
+    <pivotTable tabId="6" name="seleted rep"/>
   </pivotTables>
   <data>
     <olap pivotCacheId="1287705095">
@@ -10391,7 +14384,7 @@
         </level>
       </levels>
       <selections count="1">
-        <selection n="[calls].[Representative].[All]"/>
+        <selection n="[calls].[Representative].&amp;[R02]"/>
       </selections>
     </olap>
   </data>
@@ -10400,7 +14393,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Representative" xr10:uid="{48227ECF-E73B-4192-8043-A181CEDCBBD4}" cache="Slicer_Representative" caption="Representative" level="1" rowHeight="247650"/>
+  <slicer name="Representative" xr10:uid="{48227ECF-E73B-4192-8043-A181CEDCBBD4}" cache="Slicer_Representative" caption="Representative" level="1" style="SlicerStyleDark5 2" rowHeight="247650"/>
 </slicers>
 </file>
 
@@ -10411,20 +14404,20 @@
     <tableColumn id="1" xr3:uid="{A2AD6D5F-C481-4C4C-930A-923A5754639A}" name="Call number"/>
     <tableColumn id="2" xr3:uid="{6E1FEEB5-4749-4689-ACB4-6B80FABDC996}" name="Customer ID"/>
     <tableColumn id="3" xr3:uid="{BEB7BC5B-9542-4200-B3AF-209D2A736D88}" name="Duration"/>
-    <tableColumn id="4" xr3:uid="{A1817995-EFD7-4CEA-BF34-093CA60B7490}" name="Representative" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{5A35565E-8707-4DED-AD15-A0669D67B382}" name="Date of Call" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{A1817995-EFD7-4CEA-BF34-093CA60B7490}" name="Representative" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{5A35565E-8707-4DED-AD15-A0669D67B382}" name="Date of Call" dataDxfId="15"/>
     <tableColumn id="6" xr3:uid="{F2E4F158-B41F-47BC-8DF8-DFCADFEE4E40}" name="Purchase Amount"/>
     <tableColumn id="7" xr3:uid="{04B291B5-47BD-4F78-8FD8-D1551CCA6BD9}" name="Satisfaction Rating"/>
-    <tableColumn id="8" xr3:uid="{6E4123C0-0B17-43B8-A142-A1E540CE974C}" name="FY" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{6E4123C0-0B17-43B8-A142-A1E540CE974C}" name="FY" dataDxfId="14">
       <calculatedColumnFormula>IF(MONTH(calls[[#This Row],[Date of Call]])&lt;=6, YEAR(calls[[#This Row],[Date of Call]]), YEAR(calls[[#This Row],[Date of Call]])+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{199FA271-5E9B-46CE-9BC6-2801F92CD17E}" name="Day of week" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{199FA271-5E9B-46CE-9BC6-2801F92CD17E}" name="Day of week" dataDxfId="13">
       <calculatedColumnFormula>TEXT(calls[[#This Row],[Date of Call]],"DDDD")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{328CDB09-95B8-4D5E-9ED9-EF0D363735A1}" name="Duration Bucket" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{328CDB09-95B8-4D5E-9ED9-EF0D363735A1}" name="Duration Bucket" dataDxfId="12">
       <calculatedColumnFormula array="1">_xlfn.IFS(calls[[#This Row],[Duration]]&lt;=10,"Under 10 mins", calls[[#This Row],[Duration]]&lt;=30, "10 to 30 mins", calls[[#This Row],[Duration]]&lt;=60, "30 to 60 mins", calls[[#This Row],[Duration]]&lt;=120, "1 to 2 hours", TRUE, "More than 2 hours")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{31C7E7FB-94CB-4DAB-B0CB-46B648CD4D41}" name="Rating rounded" dataDxfId="8">
+    <tableColumn id="11" xr3:uid="{31C7E7FB-94CB-4DAB-B0CB-46B648CD4D41}" name="Rating rounded" dataDxfId="11">
       <calculatedColumnFormula>ROUND(calls[[#This Row],[Satisfaction Rating]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10433,13 +14426,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}" name="customers" displayName="customers" ref="Q3:T18" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}" name="customers" displayName="customers" ref="Q3:T18" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="Q3:T18" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{02688061-6A8C-4E23-B7FF-D00CD8B58CAC}" name="Customer ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{771678B6-DB44-426B-9874-B4E421A440D5}" name="Gedner" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B0D41C62-587E-494D-B49A-603F2C05F8D3}" name="Age" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{663F92D6-FE31-4D81-9E01-8D066DDC8A88}" name="City" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{02688061-6A8C-4E23-B7FF-D00CD8B58CAC}" name="Customer ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{771678B6-DB44-426B-9874-B4E421A440D5}" name="Gedner" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B0D41C62-587E-494D-B49A-603F2C05F8D3}" name="Age" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{663F92D6-FE31-4D81-9E01-8D066DDC8A88}" name="City" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10648,21 +14641,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834D0550-23E6-4ECE-88FB-C7046FEC3829}">
-  <dimension ref="A3:E61"/>
+  <dimension ref="A3:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -10718,19 +14712,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
-        <v>1000</v>
+        <v>218</v>
       </c>
       <c r="B11" s="22">
-        <v>96623</v>
+        <v>20581</v>
       </c>
       <c r="C11" s="21">
-        <v>89850</v>
+        <v>19300</v>
       </c>
       <c r="D11" s="23">
-        <v>3.8854000000000033</v>
+        <v>3.8706422018348627</v>
       </c>
       <c r="E11" s="21">
-        <v>307</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -10750,146 +14744,146 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>1050</v>
       </c>
       <c r="B16" s="21">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C16" s="21">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>1051</v>
       </c>
       <c r="B17" s="21">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C17" s="21">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>1052</v>
       </c>
       <c r="B18" s="21">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="C18" s="21">
-        <v>155</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>1053</v>
       </c>
       <c r="B19" s="21">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="C19" s="21">
-        <v>136</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>1054</v>
       </c>
       <c r="B20" s="21">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C20" s="21">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>1055</v>
       </c>
       <c r="B21" s="21">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C21" s="21">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>1056</v>
       </c>
       <c r="B22" s="21">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C22" s="21">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="25" t="s">
         <v>1057</v>
       </c>
       <c r="B23" s="21">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C23" s="21">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="25" t="s">
         <v>1058</v>
       </c>
       <c r="B24" s="21">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="C24" s="21">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="25" t="s">
         <v>1059</v>
       </c>
       <c r="B25" s="21">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="C25" s="21">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>1060</v>
       </c>
       <c r="B26" s="21">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C26" s="21">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>1061</v>
       </c>
       <c r="B27" s="21">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C27" s="21">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="25" t="s">
         <v>1049</v>
       </c>
       <c r="B28" s="21">
-        <v>1000</v>
+        <v>218</v>
       </c>
       <c r="C28" s="21">
-        <v>1000</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -10901,158 +14895,344 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="25" t="s">
         <v>1066</v>
       </c>
       <c r="B32" s="21">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
         <v>1064</v>
       </c>
       <c r="B33" s="21">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="25" t="s">
         <v>1068</v>
       </c>
       <c r="B34" s="21">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
         <v>1069</v>
       </c>
       <c r="B35" s="21">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
         <v>1067</v>
       </c>
       <c r="B36" s="21">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="25" t="s">
         <v>1063</v>
       </c>
       <c r="B37" s="21">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="25" t="s">
         <v>1065</v>
       </c>
       <c r="B38" s="21">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="25" t="s">
         <v>1049</v>
       </c>
       <c r="B39" s="21">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I44" t="str">
+        <f>A56</f>
+        <v>R02</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="21">
+        <v>189</v>
+      </c>
+      <c r="C45" s="22">
+        <v>18415</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="21">
+        <v>218</v>
+      </c>
+      <c r="C46" s="22">
+        <v>20581</v>
+      </c>
+      <c r="E46" t="str" cm="1">
+        <f t="array" ref="E46:G50">A45:C49</f>
+        <v>R01</v>
+      </c>
+      <c r="F46">
+        <v>189</v>
+      </c>
+      <c r="G46" s="26">
+        <v>18415</v>
+      </c>
+      <c r="H46" t="e">
+        <f>IF(E46=$I$44,F46,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I46" t="e">
+        <f>IF(E46=$I$44,G46,NA())</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="21">
+        <v>207</v>
+      </c>
+      <c r="C47" s="22">
+        <v>20872</v>
+      </c>
+      <c r="E47" t="str">
+        <v>R02</v>
+      </c>
+      <c r="F47">
+        <v>218</v>
+      </c>
+      <c r="G47" s="26">
+        <v>20581</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ref="H47:H50" si="0">IF(E47=$I$44,F47,NA())</f>
+        <v>218</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ref="I47:I50" si="1">IF(E47=$I$44,G47,NA())</f>
+        <v>20581</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="21">
+        <v>186</v>
+      </c>
+      <c r="C48" s="22">
+        <v>16651</v>
+      </c>
+      <c r="E48" t="str">
+        <v>R03</v>
+      </c>
+      <c r="F48">
+        <v>207</v>
+      </c>
+      <c r="G48" s="26">
+        <v>20872</v>
+      </c>
+      <c r="H48" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I48" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="21">
+        <v>200</v>
+      </c>
+      <c r="C49" s="22">
+        <v>20104</v>
+      </c>
+      <c r="E49" t="str">
+        <v>R04</v>
+      </c>
+      <c r="F49">
+        <v>186</v>
+      </c>
+      <c r="G49" s="26">
+        <v>16651</v>
+      </c>
+      <c r="H49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I49" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="25" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B50" s="21">
         <v>1000</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="32"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="32"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="30"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="32"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="30"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="32"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="30"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="32"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="30"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="32"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="30"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="32"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="32"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="30"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="32"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="30"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="32"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="33"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="35"/>
+      <c r="C50" s="22">
+        <v>96623</v>
+      </c>
+      <c r="E50" t="str">
+        <v>R05</v>
+      </c>
+      <c r="F50">
+        <v>200</v>
+      </c>
+      <c r="G50" s="26">
+        <v>20104</v>
+      </c>
+      <c r="H50" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I50" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="24" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="24" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B59" t="s">
+        <v>999</v>
+      </c>
+      <c r="C59" t="s">
+        <v>998</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B60" s="21">
+        <v>144</v>
+      </c>
+      <c r="C60" s="21">
+        <v>132</v>
+      </c>
+      <c r="D60" s="21">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="25" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B61" s="21">
+        <v>326</v>
+      </c>
+      <c r="C61" s="21">
+        <v>63</v>
+      </c>
+      <c r="D61" s="21">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="25" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B62" s="21">
+        <v>129</v>
+      </c>
+      <c r="C62" s="21">
+        <v>206</v>
+      </c>
+      <c r="D62" s="21">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="25" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B63" s="21">
+        <v>599</v>
+      </c>
+      <c r="C63" s="21">
+        <v>401</v>
+      </c>
+      <c r="D63" s="21">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50333,8 +54513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00F2D57-6A6B-4B4C-88B6-CD6A1F8BA299}">
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50377,7 +54557,7 @@
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="25"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -50751,7 +54931,9 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
+      <c r="S14" s="20" t="s">
+        <v>1071</v>
+      </c>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>

--- a/PortfolioProject.xlsx
+++ b/PortfolioProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F799B9-BEC5-45C8-B69F-8D77759F2D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D0B6EE-A7A7-4E94-99CA-2546838B3559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
@@ -21,28 +21,28 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$B$3:$H$1003</definedName>
-    <definedName name="_xlcn.WorksheetConnection_PortfolioProject.xlsxcalls1" hidden="1">calls[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_PortfolioProject.xlsxcustomers1" hidden="1">customers[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_PortfolioProject.xlsxcalls" hidden="1">calls[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_PortfolioProject.xlsxcustomers" hidden="1">customers[]</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$3:$M$17</definedName>
     <definedName name="Image">Pivots!$I$66</definedName>
     <definedName name="Slicer_Representative">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
-    <pivotCache cacheId="2" r:id="rId8"/>
-    <pivotCache cacheId="3" r:id="rId9"/>
-    <pivotCache cacheId="282" r:id="rId10"/>
-    <pivotCache cacheId="285" r:id="rId11"/>
-    <pivotCache cacheId="288" r:id="rId12"/>
-    <pivotCache cacheId="291" r:id="rId13"/>
-    <pivotCache cacheId="294" r:id="rId14"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="3" r:id="rId8"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
+    <pivotCache cacheId="5" r:id="rId10"/>
+    <pivotCache cacheId="6" r:id="rId11"/>
+    <pivotCache cacheId="7" r:id="rId12"/>
+    <pivotCache cacheId="8" r:id="rId13"/>
+    <pivotCache cacheId="9" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="9" r:id="rId15"/>
+        <pivotCache cacheId="10" r:id="rId15"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -113,7 +113,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="calls" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_PortfolioProject.xlsxcalls1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_PortfolioProject.xlsxcalls"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -122,7 +122,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="customers">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_PortfolioProject.xlsxcustomers1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_PortfolioProject.xlsxcustomers"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -3798,7 +3798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3898,146 +3898,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -4265,11 +4131,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style 1" pivot="0" table="0" count="1" xr9:uid="{25BABDA2-DB3D-41F6-98D0-3EE7CBB0176F}">
-      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
     </tableStyle>
     <tableStyle name="SlicerStyleDark5 2" pivot="0" table="0" count="10" xr9:uid="{AD47E305-3DEF-4232-A944-71C987D02AB4}">
-      <tableStyleElement type="wholeTable" dxfId="37"/>
-      <tableStyleElement type="headerRow" dxfId="36"/>
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -11395,15 +11261,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57317</xdr:colOff>
+      <xdr:colOff>102141</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>142091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>489858</xdr:colOff>
+      <xdr:colOff>534682</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>32656</xdr:rowOff>
+      <xdr:rowOff>14727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Pivots!A4">
       <xdr:nvSpPr>
@@ -11418,8 +11284,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="329460" y="530134"/>
-          <a:ext cx="1314284" cy="982979"/>
+          <a:off x="380047" y="599291"/>
+          <a:ext cx="1320047" cy="948401"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15083,286 +14949,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="282" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A10:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="6">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R01]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06AD5479-9280-469F-AA3D-CDBD749637C2}" name="reps pivot" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A44:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="3"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFED1980-F3DA-4181-984C-133E7C44C6C1}" name="seleted rep" cacheId="291" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A55:A56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="1">
-        <item s="1" x="0"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x/>
-    </i>
-  </rowItems>
-  <formats count="1">
-    <format dxfId="34">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotHierarchies count="28">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="3"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{549B98BD-FAF4-46D6-9974-A86D8A646DF5}" name="rep satisfaction" cacheId="294" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="45">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{549B98BD-FAF4-46D6-9974-A86D8A646DF5}" name="rep satisfaction" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="45">
   <location ref="A67:B73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -15472,8 +15059,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="WeekDay trend" cacheId="288" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE15B439-FD6A-4A0A-9DA6-A499EDD77581}" name="WeekDay trend" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="A31:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
@@ -15629,8 +15216,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="Monthly Trend" cacheId="285" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B167938-10F8-471F-86FB-95B099B70973}" name="Monthly Trend" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A15:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -16174,8 +15761,210 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="Summary" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E14952B-0023-486B-8821-CABAE62B05B1}" name="rep pivot" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A10:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R01]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06AD5479-9280-469F-AA3D-CDBD749637C2}" name="reps pivot" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A44:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_PortfolioProject.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{213820C0-D94F-4B7D-8DDB-DD3DC44499E7}" name="Summary" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -16264,8 +16053,85 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFED1980-F3DA-4181-984C-133E7C44C6C1}" name="seleted rep" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A55:A56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="1">
+        <item s="1" x="0"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x/>
+    </i>
+  </rowItems>
+  <formats count="1">
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC07D0C4-1C20-4975-A7EE-394D315C4D33}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC07D0C4-1C20-4975-A7EE-394D315C4D33}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
   <location ref="A58:D63" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -16398,7 +16264,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FF85D9D-1E8B-4493-B048-BC66BC26138C}" name="rep amounts" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FF85D9D-1E8B-4493-B048-BC66BC26138C}" name="rep amounts" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
   <location ref="A79:G98" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -16663,7 +16529,7 @@
     <tableColumn id="2" xr3:uid="{DC6D7266-1D9C-4237-9B64-E741F6A96DDD}" uniqueName="2" name="calls[Customer ID]" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{FCC8372B-E286-44CC-A869-52814C18EDD3}" uniqueName="3" name="calls[Duration]" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{B4D9CBBB-E978-45B6-9ED0-3BE55233281B}" uniqueName="4" name="calls[Representative]" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{F8903E70-C355-4DB1-B563-67F99262BC65}" uniqueName="5" name="calls[Date of Call]" queryTableFieldId="5" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{F8903E70-C355-4DB1-B563-67F99262BC65}" uniqueName="5" name="calls[Date of Call]" queryTableFieldId="5" dataDxfId="16"/>
     <tableColumn id="6" xr3:uid="{2A1C27E0-4470-4602-AA09-99536A8C23F1}" uniqueName="6" name="calls[Purchase Amount]" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{D170794A-0D44-426F-A00A-295590960394}" uniqueName="7" name="calls[Satisfaction Rating]" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{9E1B2984-7818-465B-A171-6C4CB8B8ADC7}" uniqueName="8" name="calls[FY]" queryTableFieldId="8"/>
@@ -16684,20 +16550,20 @@
     <tableColumn id="1" xr3:uid="{A2AD6D5F-C481-4C4C-930A-923A5754639A}" name="Call number"/>
     <tableColumn id="2" xr3:uid="{6E1FEEB5-4749-4689-ACB4-6B80FABDC996}" name="Customer ID"/>
     <tableColumn id="3" xr3:uid="{BEB7BC5B-9542-4200-B3AF-209D2A736D88}" name="Duration"/>
-    <tableColumn id="4" xr3:uid="{A1817995-EFD7-4CEA-BF34-093CA60B7490}" name="Representative" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{5A35565E-8707-4DED-AD15-A0669D67B382}" name="Date of Call" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{A1817995-EFD7-4CEA-BF34-093CA60B7490}" name="Representative" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{5A35565E-8707-4DED-AD15-A0669D67B382}" name="Date of Call" dataDxfId="13"/>
     <tableColumn id="6" xr3:uid="{F2E4F158-B41F-47BC-8DF8-DFCADFEE4E40}" name="Purchase Amount"/>
     <tableColumn id="7" xr3:uid="{04B291B5-47BD-4F78-8FD8-D1551CCA6BD9}" name="Satisfaction Rating"/>
-    <tableColumn id="8" xr3:uid="{6E4123C0-0B17-43B8-A142-A1E540CE974C}" name="FY" dataDxfId="31">
+    <tableColumn id="8" xr3:uid="{6E4123C0-0B17-43B8-A142-A1E540CE974C}" name="FY" dataDxfId="12">
       <calculatedColumnFormula>IF(MONTH(calls[[#This Row],[Date of Call]])&lt;=6, YEAR(calls[[#This Row],[Date of Call]]), YEAR(calls[[#This Row],[Date of Call]])+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{199FA271-5E9B-46CE-9BC6-2801F92CD17E}" name="Day of week" dataDxfId="30">
+    <tableColumn id="9" xr3:uid="{199FA271-5E9B-46CE-9BC6-2801F92CD17E}" name="Day of week" dataDxfId="11">
       <calculatedColumnFormula>TEXT(calls[[#This Row],[Date of Call]],"DDDD")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{328CDB09-95B8-4D5E-9ED9-EF0D363735A1}" name="Duration Bucket" dataDxfId="29">
+    <tableColumn id="10" xr3:uid="{328CDB09-95B8-4D5E-9ED9-EF0D363735A1}" name="Duration Bucket" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.IFS(calls[[#This Row],[Duration]]&lt;=10,"Under 10 mins", calls[[#This Row],[Duration]]&lt;=30, "10 to 30 mins", calls[[#This Row],[Duration]]&lt;=60, "30 to 60 mins", calls[[#This Row],[Duration]]&lt;=120, "1 to 2 hours", TRUE, "More than 2 hours")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{31C7E7FB-94CB-4DAB-B0CB-46B648CD4D41}" name="Rating rounded" dataDxfId="28">
+    <tableColumn id="11" xr3:uid="{31C7E7FB-94CB-4DAB-B0CB-46B648CD4D41}" name="Rating rounded" dataDxfId="9">
       <calculatedColumnFormula>ROUND(calls[[#This Row],[Satisfaction Rating]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16706,13 +16572,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}" name="customers" displayName="customers" ref="Q3:T18" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}" name="customers" displayName="customers" ref="Q3:T18" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="Q3:T18" xr:uid="{27158F51-A707-4171-8A04-81FB0AABCBA5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{02688061-6A8C-4E23-B7FF-D00CD8B58CAC}" name="Customer ID" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{771678B6-DB44-426B-9874-B4E421A440D5}" name="Gedner" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{B0D41C62-587E-494D-B49A-603F2C05F8D3}" name="Age" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{663F92D6-FE31-4D81-9E01-8D066DDC8A88}" name="City" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{02688061-6A8C-4E23-B7FF-D00CD8B58CAC}" name="Customer ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{771678B6-DB44-426B-9874-B4E421A440D5}" name="Gedner" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B0D41C62-587E-494D-B49A-603F2C05F8D3}" name="Age" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{663F92D6-FE31-4D81-9E01-8D066DDC8A88}" name="City" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18246,7 +18112,7 @@
       <c r="A68" s="25">
         <v>1</v>
       </c>
-      <c r="B68" s="59">
+      <c r="B68">
         <v>1</v>
       </c>
       <c r="G68" t="s">
@@ -18257,7 +18123,7 @@
       <c r="A69" s="25">
         <v>2</v>
       </c>
-      <c r="B69" s="59">
+      <c r="B69">
         <v>9</v>
       </c>
       <c r="G69" t="s">
@@ -18268,7 +18134,7 @@
       <c r="A70" s="25">
         <v>3</v>
       </c>
-      <c r="B70" s="59">
+      <c r="B70">
         <v>31</v>
       </c>
       <c r="G70" t="s">
@@ -18279,7 +18145,7 @@
       <c r="A71" s="25">
         <v>4</v>
       </c>
-      <c r="B71" s="59">
+      <c r="B71">
         <v>88</v>
       </c>
       <c r="G71" t="s">
@@ -18290,7 +18156,7 @@
       <c r="A72" s="25">
         <v>5</v>
       </c>
-      <c r="B72" s="59">
+      <c r="B72">
         <v>60</v>
       </c>
       <c r="G72" t="s">
@@ -18301,7 +18167,7 @@
       <c r="A73" s="25" t="s">
         <v>1049</v>
       </c>
-      <c r="B73" s="59">
+      <c r="B73">
         <v>189</v>
       </c>
     </row>
@@ -57989,7 +57855,7 @@
   <dimension ref="A1:AB81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
